--- a/docs/Estimates.xlsx
+++ b/docs/Estimates.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\Documents\CS 411\cs411-A4-Group-5\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribrahe/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0123920-399D-4620-99F4-A5E2CDCC2BC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACFA190-6062-9E46-87BA-F8BE8A16950D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EE31EFDD-7FD9-40D9-9CC2-CBD75DEB25D9}"/>
+    <workbookView xWindow="16820" yWindow="4440" windowWidth="20460" windowHeight="10920" activeTab="3" xr2:uid="{EE31EFDD-7FD9-40D9-9CC2-CBD75DEB25D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rahaf" sheetId="3" r:id="rId1"/>
-    <sheet name="Richard" sheetId="2" r:id="rId2"/>
-    <sheet name="Group" sheetId="1" r:id="rId3"/>
-    <sheet name="Asif" sheetId="6" r:id="rId4"/>
+    <sheet name="Richard" sheetId="2" r:id="rId1"/>
+    <sheet name="Rahaf" sheetId="3" r:id="rId2"/>
+    <sheet name="Asif" sheetId="6" r:id="rId3"/>
+    <sheet name="Group" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>User stories</t>
   </si>
@@ -42,13 +36,7 @@
     <t>Estimation</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t xml:space="preserve">Having different options for each category that user can select. </t>
-  </si>
-  <si>
-    <t>1 hour for each category. Max 3 hours</t>
   </si>
   <si>
     <t xml:space="preserve">       For example for cuisine type there will be options like Thai, Indian etc.</t>
@@ -66,19 +54,10 @@
     <t>4. Take the user input from user and pass it to the API</t>
   </si>
   <si>
-    <t>2 hour</t>
-  </si>
-  <si>
     <t>5. Retrive the info from API and show it in the display</t>
   </si>
   <si>
-    <t>1 - 2 hour</t>
-  </si>
-  <si>
     <t>6. Design the output</t>
-  </si>
-  <si>
-    <t>1 - 3 hour</t>
   </si>
   <si>
     <t>7. Get the coordinates of the user</t>
@@ -90,9 +69,6 @@
     <t>9. Then pass these info to Google distance matrix API to calculate the expected arrival time by default show walking</t>
   </si>
   <si>
-    <t>5 hour</t>
-  </si>
-  <si>
     <t>10. Display the result on the screen</t>
   </si>
   <si>
@@ -102,10 +78,13 @@
     <t>7. Get the coordinates of the user through google maps</t>
   </si>
   <si>
-    <t>16 - 20 hours</t>
+    <t>11. Sort by different filters</t>
   </si>
   <si>
-    <t>11. Sort by different filters</t>
+    <t>Estimation (in hours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hour for each category. Max 3 hours</t>
   </si>
 </sst>
 </file>
@@ -146,13 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,44 +445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8286CB83-0579-4DCA-9EA6-0909C3FB85F4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99F6891-AC82-4E46-A4D1-CBF287A0F35C}">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99F6891-AC82-4E46-A4D1-CBF287A0F35C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84273E9-657D-4B61-B20E-4246D8D38743}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +465,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -523,19 +474,17 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -543,9 +492,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -560,10 +509,13 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -579,40 +531,38 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -621,99 +571,89 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -721,17 +661,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -739,35 +677,31 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -775,17 +709,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -793,66 +720,60 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20">
+        <f>SUM(H2:N16)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A14:G14"/>
+  <mergeCells count="31">
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="A15:G15"/>
     <mergeCell ref="H15:L15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:L10"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="H4:N4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72CFC24-772A-422F-8932-CA017EEAD707}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8286CB83-0579-4DCA-9EA6-0909C3FB85F4}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +784,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -872,18 +793,18 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
+        <v>1.5</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -892,9 +813,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -902,8 +823,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -912,9 +833,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -922,7 +843,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -930,40 +853,40 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -972,99 +895,99 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <v>3</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <v>2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <v>2</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1072,17 +995,17 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
+      <c r="H14" s="1">
+        <v>2.5</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1090,35 +1013,53 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
+      <c r="H15" s="1">
+        <v>5</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1">
+        <v>1</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1126,14 +1067,25 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <f>SUM(H2:N17)</f>
+        <v>24</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:L17"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="A13:G13"/>
@@ -1161,6 +1113,704 @@
     <mergeCell ref="H3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72CFC24-772A-422F-8932-CA017EEAD707}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="J20">
+        <f>SUM(H2:N16)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="A20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84273E9-657D-4B61-B20E-4246D8D38743}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
+        <f>(Asif!H2+Rahaf!H2+Richard!H2)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
+        <f>(Asif!H3+Rahaf!H3+Richard!H3)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
+        <f>(Asif!H4+Rahaf!H4+Richard!H4)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="1">
+        <f>(Asif!I7+Rahaf!I7+Richard!I7)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1">
+        <f>(Asif!H9+Rahaf!H9+Richard!H9)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <f>(Asif!H10+Rahaf!H10+Richard!H10)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <f>(Asif!H11+Rahaf!H11+Richard!H11)/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <f>(Asif!H12+Rahaf!H12+Richard!H12)/3</f>
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <f>(Asif!H13+Rahaf!H13+Richard!H13)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <f>(Asif!H14+Rahaf!H14+Richard!H14)/3</f>
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <f>(Asif!H15+Rahaf!H15+Richard!H15)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1">
+        <f>(Asif!H16+Rahaf!H16+Richard!H16)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <f>(Asif!H17+Rahaf!H17+Richard!H17)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <f>SUM(H2:N17)</f>
+        <v>14.833333333333332</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>